--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60242.016042029</v>
+        <v>11988161.19236375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60242.016042029</v>
+        <v>11988161.19236375</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>996.972586512086</v>
+        <v>61992.23551887918</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>996.972586512086</v>
+        <v>61992.23551887918</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959582895.7168261</v>
+        <v>39884719.45151681</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8516.058663425452</v>
+        <v>966143.0131983376</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15871.62253505448</v>
+        <v>1752299.495846518</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23227.18640668351</v>
+        <v>2538455.9784947</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30582.75027831251</v>
+        <v>3324612.461142881</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37938.31414994154</v>
+        <v>4110768.943791063</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45293.87802157057</v>
+        <v>4896925.426439243</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52649.44189319958</v>
+        <v>5683081.909087421</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60005.00576482861</v>
+        <v>6469238.391735599</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67359.74667742889</v>
+        <v>7255067.918823961</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>74715.27950922106</v>
+        <v>8041055.037831517</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82070.81234101324</v>
+        <v>8827042.156839078</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89426.34517280541</v>
+        <v>9613029.275846643</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>96781.87800459759</v>
+        <v>10399016.39485421</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>104137.4108363898</v>
+        <v>11185003.51386177</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>111492.9436681819</v>
+        <v>11970990.63286934</v>
       </c>
     </row>
   </sheetData>
